--- a/Enteroctopodidae_and_Outgroup.xlsx
+++ b/Enteroctopodidae_and_Outgroup.xlsx
@@ -335,7 +335,7 @@
     <t xml:space="preserve">HM572200</t>
   </si>
   <si>
-    <t xml:space="preserve">Muusoctopus_longibranchus</t>
+    <t xml:space="preserve">Muusoctopus_longibrachus</t>
   </si>
   <si>
     <t xml:space="preserve">HM572146</t>
@@ -740,7 +740,7 @@
     <t xml:space="preserve">KM459486</t>
   </si>
   <si>
-    <t xml:space="preserve">Muusoctopus_longibrachus</t>
+    <t xml:space="preserve">Muusoctopus_longibrachus_2</t>
   </si>
   <si>
     <t xml:space="preserve">MG999669</t>
@@ -1048,14 +1048,14 @@
   <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A76" activeCellId="0" sqref="A76"/>
-      <selection pane="bottomRight" activeCell="A92" activeCellId="0" sqref="A92"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A42" activeCellId="0" sqref="42:42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="45.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="12.25"/>
@@ -2154,7 +2154,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1" right="1" top="1.66666666666667" bottom="1.66666666666667" header="1" footer="1"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Sans,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Sans,Regular"Page &amp;P</oddFooter>
@@ -2170,17 +2170,17 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="42:42 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.8671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="256" min="1" style="1" width="10.45"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1" right="1" top="1.66666666666667" bottom="1.66666666666667" header="1" footer="1"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Sans,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Sans,Regular"Page &amp;P</oddFooter>
@@ -2196,17 +2196,17 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="42:42 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.8671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="256" min="1" style="1" width="10.45"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1" right="1" top="1.66666666666667" bottom="1.66666666666667" header="1" footer="1"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Sans,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Sans,Regular"Page &amp;P</oddFooter>
